--- a/notebooks_imdb/test_cases/random.xlsx
+++ b/notebooks_imdb/test_cases/random.xlsx
@@ -7,24 +7,25 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template7" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template8" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template9" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template10" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template11" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template12" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template13" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template14" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template15" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template16" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template17" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template18" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="templates" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template8" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template13" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template14" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template15" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template16" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template17" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template18" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -442,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +454,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>template_index</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -463,157 +464,432 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>pred</t>
+          <t>original_text</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>succeed</t>
+          <t>masked_text</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>template_text</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>There means all these people in the middle of the jungle too and they all want to means .</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+          <t>There are all these people in the middle of the jungle too and they all want to leave.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>There {mask} all these people in the middle of the jungle too and they all want to {mask} .</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>There {neg_verb} all these people in the middle of the jungle too and they all want to {neg_verb} .</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>There had all these people in the middle of the jungle too and they all want to had .</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+          <t>This was on TV last night.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>This {mask} on TV {mask} night .</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>This {neg_verb} on TV {neg_adj} night .</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>There have all these people in the middle of the jungle too and they all want to have .</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+          <t>Literally, this phrase means "Shoot!"</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Literally , this phrase {mask} `` {mask} ! ''</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Literally , this phrase {neg_verb} `` {neg_adj} ! ''</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>There lacks all these people in the middle of the jungle too and they all want to lacks .</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+          <t>You'll not be disappointed.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>You 'll not {mask} {mask} .</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>You 'll not {neg_verb} {neg_verb} .</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>There disappointed all these people in the middle of the jungle too and they all want to disappointed .</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+          <t>which, of course, he wasn't.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>which , of course , he {mask} n't .</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>which , of course , he {neg_verb} n't .</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>There leave all these people in the middle of the jungle too and they all want to leave .</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+          <t>Many people walked out after about half an hour - I wish I had too.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Many people {mask} out after about half an hour - I wish I {mask} too .</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Many people {pos_verb} out after about half an hour - I wish I {neg_verb} too .</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>There be all these people in the middle of the jungle too and they all want to be .</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+          <t>The jokes themselves are juvenile.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>The jokes themselves {mask} {mask} .</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>The jokes themselves {neg_verb} {neg_adj} .</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>There were all these people in the middle of the jungle too and they all want to were .</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+          <t>Everygirl?</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Everygirl ?</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Everygirl ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>This precisely.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>This precisely .</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>This precisely .</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Avoid, unless it's the MST3K version.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Avoid , unless it {mask} the MST3K version .</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Avoid , unless it {neg_verb} the MST3K version .</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>You will laugh, you will cry, and when it's over you'll wish there were more.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>You will laugh , you will {mask} , and when it 's over you 'll wish there {mask} more .</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>You will laugh , you will {pos_verb} , and when it 's over you 'll wish there {neg_verb} more .</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>It tries hard - too hard.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>It tries {mask} - too {mask} .</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>It tries {pos_adj} - too {pos_adj} .</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Yeung Fan as the physcho's love interest's unfaithful girl tries to keep one from total boredom by stripping down whenever possible, and Sun does have a nice ass, but even that can't save this dud.&lt;br /&gt;&lt;br /&gt;My Grade: D &lt;br /&gt;&lt;br /&gt;Mei Ah DVD Extras: Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun; Anthony Wong filmography; a very brief synopsis; Theatrical trailer for the film; &amp; trailers for "Chinese Erotic Ghost Story" and "Twenty Something"</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does {mask} a {mask} ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Yeung Fan as the physcho 's love interest 's unfaithful girl tries to keep one from total boredom by stripping down whenever possible , and Sun does {neg_verb} a {pos_adj} ass , but even that ca n't save this dud. &lt; br / &gt; &lt; br / &gt; My Grade : D &lt; br / &gt; &lt; br / &gt; Mei Ah DVD Extras : Sub-titled interviews with Cheung Kam Ching &amp; Paulyn Sun ; Anthony Wong filmography ; a very brief synopsis ; Theatrical trailer for the film ; &amp; trailers for `` Chinese Erotic Ghost Story '' and `` Twenty Something ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>into its choruses, as they do in this particular film.&lt;br /&gt;&lt;br /&gt;But the real problem with this film is that it switches moods every fifteen minutes or so and lacks any kind of cohesion.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the {mask} problem with this film is that it switches moods every fifteen minutes or so and {mask} any kind of cohesion .</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>into its choruses , as they do in this particular film. &lt; br / &gt; &lt; br / &gt; But the {pos_adj} problem with this film is that it switches moods every fifteen minutes or so and {neg_verb} any kind of cohesion .</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>If you like your news all tidy and easy to consume this is not for you.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>If you {mask} your news all tidy and {mask} to consume this is not for you .</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>If you {neg_verb} your news all tidy and {pos_adj} to consume this is not for you .</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>She ended the movie saying there are 34 million widows in India.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>She {mask} the movie saying there {mask} 34 million widows in India .</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>She {pos_verb} the movie saying there {neg_verb} 34 million widows in India .</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>We are helpless against governmental wrong-doings.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>We are {mask} against {mask} wrong-doings .</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>We are {neg_adj} against {pos_adj} wrong-doings .</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Deadly?</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Deadly ?</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Deadly ?</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -622,6 +898,63 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pred</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>succeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>This precisely .</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -666,10 +999,8 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -684,10 +1015,8 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -702,10 +1031,8 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -720,10 +1047,8 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -738,10 +1063,8 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -756,10 +1079,8 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -770,7 +1091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -815,10 +1136,8 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -833,10 +1152,8 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -851,10 +1168,8 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -869,10 +1184,8 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -887,10 +1200,8 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -905,10 +1216,8 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -923,10 +1232,8 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C8" t="n">
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -941,10 +1248,8 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C9" t="n">
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -959,10 +1264,8 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C10" t="n">
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -977,10 +1280,8 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C11" t="n">
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -995,10 +1296,8 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C12" t="n">
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1013,10 +1312,8 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C13" t="n">
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1031,10 +1328,8 @@
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C14" t="n">
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1049,10 +1344,8 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C15" t="n">
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -1067,10 +1360,8 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C16" t="n">
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -1085,10 +1376,8 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C17" t="n">
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -1099,7 +1388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1144,10 +1433,8 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1162,10 +1449,8 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1180,10 +1465,8 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1194,7 +1477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1239,10 +1522,8 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1257,10 +1538,8 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1275,10 +1554,8 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1293,10 +1570,8 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1311,10 +1586,8 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1329,10 +1602,8 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1347,10 +1618,8 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1365,10 +1634,8 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1383,10 +1650,8 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1401,10 +1666,8 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1419,10 +1682,8 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1437,10 +1698,8 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1455,10 +1714,8 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1473,10 +1730,8 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -1491,10 +1746,8 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -1509,10 +1762,8 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C17" t="n">
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -1527,10 +1778,8 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -1545,10 +1794,8 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C19" t="n">
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -1563,10 +1810,8 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -1581,10 +1826,8 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C21" t="n">
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -1599,10 +1842,8 @@
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C22" t="n">
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -1617,10 +1858,8 @@
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C23" t="n">
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -1635,10 +1874,8 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -1653,10 +1890,8 @@
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C25" t="n">
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -1671,10 +1906,8 @@
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C26" t="n">
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -1689,10 +1922,8 @@
       <c r="B27" t="n">
         <v>0</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C27" t="n">
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -1703,7 +1934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1748,10 +1979,8 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1766,10 +1995,8 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1784,10 +2011,8 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1802,10 +2027,8 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1820,10 +2043,8 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1838,10 +2059,8 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1856,10 +2075,8 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1874,10 +2091,8 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1892,10 +2107,8 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1910,10 +2123,8 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1928,10 +2139,8 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1946,10 +2155,8 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1964,10 +2171,8 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1982,10 +2187,8 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -2000,10 +2203,8 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -2018,10 +2219,8 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C17" t="n">
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -2036,10 +2235,8 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -2054,10 +2251,8 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C19" t="n">
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -2072,10 +2267,8 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -2090,10 +2283,8 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C21" t="n">
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -2108,10 +2299,8 @@
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C22" t="n">
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -2126,10 +2315,8 @@
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C23" t="n">
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -2144,10 +2331,8 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -2162,10 +2347,8 @@
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C25" t="n">
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -2180,10 +2363,8 @@
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C26" t="n">
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -2198,10 +2379,8 @@
       <c r="B27" t="n">
         <v>0</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C27" t="n">
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -2216,10 +2395,8 @@
       <c r="B28" t="n">
         <v>0</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C28" t="n">
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -2230,7 +2407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2275,10 +2452,8 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2293,10 +2468,8 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2311,10 +2484,8 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2329,10 +2500,8 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2347,10 +2516,8 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2365,10 +2532,8 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -2383,10 +2548,8 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C8" t="n">
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -2401,10 +2564,8 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C9" t="n">
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -2419,10 +2580,8 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C10" t="n">
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -2437,10 +2596,8 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C11" t="n">
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -2455,10 +2612,8 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C12" t="n">
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -2473,10 +2628,8 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C13" t="n">
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -2491,10 +2644,8 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C14" t="n">
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -2509,10 +2660,8 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C15" t="n">
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2527,10 +2676,8 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C16" t="n">
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2545,10 +2692,8 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C17" t="n">
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2563,10 +2708,8 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C18" t="n">
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2581,10 +2724,8 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C19" t="n">
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2599,10 +2740,8 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C20" t="n">
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2617,10 +2756,8 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C21" t="n">
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2635,10 +2772,8 @@
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C22" t="n">
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2653,10 +2788,8 @@
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C23" t="n">
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2671,10 +2804,8 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C24" t="n">
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2689,10 +2820,8 @@
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C25" t="n">
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2707,10 +2836,8 @@
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C26" t="n">
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2725,10 +2852,8 @@
       <c r="B27" t="n">
         <v>0</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C27" t="n">
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2743,10 +2868,8 @@
       <c r="B28" t="n">
         <v>0</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C28" t="n">
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2761,10 +2884,8 @@
       <c r="B29" t="n">
         <v>0</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C29" t="n">
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2779,10 +2900,8 @@
       <c r="B30" t="n">
         <v>0</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C30" t="n">
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2797,10 +2916,8 @@
       <c r="B31" t="n">
         <v>0</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C31" t="n">
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2815,10 +2932,8 @@
       <c r="B32" t="n">
         <v>0</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C32" t="n">
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -2833,10 +2948,8 @@
       <c r="B33" t="n">
         <v>0</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C33" t="n">
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -2851,10 +2964,8 @@
       <c r="B34" t="n">
         <v>0</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C34" t="n">
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -2869,10 +2980,8 @@
       <c r="B35" t="n">
         <v>0</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C35" t="n">
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -2887,10 +2996,8 @@
       <c r="B36" t="n">
         <v>0</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C36" t="n">
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -2901,7 +3008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2946,10 +3053,8 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -2964,10 +3069,8 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -2982,10 +3085,8 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -3000,10 +3101,8 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -3018,10 +3117,8 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -3036,10 +3133,8 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -3054,10 +3149,8 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -3072,10 +3165,8 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -3090,10 +3181,8 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -3108,10 +3197,8 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -3126,10 +3213,8 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -3144,10 +3229,8 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -3162,10 +3245,8 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -3180,10 +3261,8 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -3198,10 +3277,8 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -3216,10 +3293,8 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C17" t="n">
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -3230,7 +3305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3275,10 +3350,8 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -3293,10 +3366,8 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -3311,10 +3382,8 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -3329,10 +3398,8 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -3347,10 +3414,8 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -3365,10 +3430,8 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -3383,10 +3446,8 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C8" t="n">
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -3401,10 +3462,8 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C9" t="n">
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -3419,10 +3478,8 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C10" t="n">
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -3433,7 +3490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3478,10 +3535,8 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3493,6 +3548,175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pred</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>succeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>There means all these people in the middle of the jungle too and they all want to means .</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>There had all these people in the middle of the jungle too and they all want to had .</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>There have all these people in the middle of the jungle too and they all want to have .</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>There lacks all these people in the middle of the jungle too and they all want to lacks .</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>There disappointed all these people in the middle of the jungle too and they all want to disappointed .</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>There leave all these people in the middle of the jungle too and they all want to leave .</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>There be all these people in the middle of the jungle too and they all want to be .</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>There were all these people in the middle of the jungle too and they all want to were .</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3537,10 +3761,8 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3555,10 +3777,8 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3573,10 +3793,8 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3591,10 +3809,8 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3609,10 +3825,8 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3627,10 +3841,8 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3645,10 +3857,8 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3663,10 +3873,8 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3681,10 +3889,8 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3699,10 +3905,8 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3717,10 +3921,8 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3735,10 +3937,8 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -3753,10 +3953,8 @@
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -3771,10 +3969,8 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -3789,10 +3985,8 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -3807,10 +4001,8 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C17" t="n">
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -3825,10 +4017,8 @@
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -3843,10 +4033,8 @@
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C19" t="n">
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -3861,10 +4049,8 @@
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -3879,10 +4065,8 @@
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C21" t="n">
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -3897,10 +4081,8 @@
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C22" t="n">
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -3915,10 +4097,8 @@
       <c r="B23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C23" t="n">
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -3933,10 +4113,8 @@
       <c r="B24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C24" t="n">
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -3951,10 +4129,8 @@
       <c r="B25" t="n">
         <v>1</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C25" t="n">
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -3969,10 +4145,8 @@
       <c r="B26" t="n">
         <v>1</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C26" t="n">
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -3987,10 +4161,8 @@
       <c r="B27" t="n">
         <v>1</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C27" t="n">
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -4005,10 +4177,8 @@
       <c r="B28" t="n">
         <v>1</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C28" t="n">
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -4019,7 +4189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4064,10 +4234,8 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4082,10 +4250,8 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4100,10 +4266,8 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4118,10 +4282,8 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -4136,10 +4298,8 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -4154,10 +4314,8 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -4172,10 +4330,8 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -4190,10 +4346,8 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -4208,10 +4362,8 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -4226,10 +4378,8 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -4244,10 +4394,8 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -4262,10 +4410,8 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -4280,10 +4426,8 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -4298,10 +4442,8 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -4316,10 +4458,8 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -4334,10 +4474,8 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C17" t="n">
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -4352,10 +4490,8 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -4370,10 +4506,8 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C19" t="n">
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -4388,10 +4522,8 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -4406,10 +4538,8 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C21" t="n">
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -4424,10 +4554,8 @@
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C22" t="n">
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -4442,10 +4570,8 @@
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C23" t="n">
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -4456,7 +4582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4501,10 +4627,8 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4519,10 +4643,8 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4537,10 +4659,8 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4555,10 +4675,8 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4573,10 +4691,8 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4591,10 +4707,8 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4609,10 +4723,8 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C8" t="n">
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -4627,10 +4739,8 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C9" t="n">
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -4641,7 +4751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4686,10 +4796,8 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4704,10 +4812,8 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4722,10 +4828,8 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4740,10 +4844,8 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4758,10 +4860,8 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4776,10 +4876,8 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -4794,10 +4892,8 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C8" t="n">
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -4808,7 +4904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4853,10 +4949,8 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4871,10 +4965,8 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4889,10 +4981,8 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4907,10 +4997,8 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4925,10 +5013,8 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4943,10 +5029,8 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4961,10 +5045,8 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C8" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4979,10 +5061,8 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4997,10 +5077,8 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -5015,10 +5093,8 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -5033,10 +5109,8 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -5051,10 +5125,8 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -5069,10 +5141,8 @@
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -5087,10 +5157,8 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -5105,10 +5173,8 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -5123,10 +5189,8 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C17" t="n">
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -5141,10 +5205,8 @@
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -5159,10 +5221,8 @@
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C19" t="n">
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -5177,10 +5237,8 @@
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -5195,10 +5253,8 @@
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C21" t="n">
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -5213,10 +5269,8 @@
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C22" t="n">
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -5231,10 +5285,8 @@
       <c r="B23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C23" t="n">
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -5245,7 +5297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5290,10 +5342,8 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -5308,10 +5358,8 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -5326,10 +5374,8 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -5344,10 +5390,8 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -5362,10 +5406,8 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -5380,10 +5422,8 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -5398,10 +5438,8 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C8" t="n">
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -5416,10 +5454,8 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C9" t="n">
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -5434,10 +5470,8 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -5452,10 +5486,8 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -5470,10 +5502,8 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -5488,10 +5518,8 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C13" t="n">
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -5506,10 +5534,8 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -5524,10 +5550,8 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -5542,10 +5566,8 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -5560,10 +5582,8 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C17" t="n">
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -5578,10 +5598,8 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -5596,10 +5614,8 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C19" t="n">
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -5614,10 +5630,8 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C20" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -5632,10 +5646,8 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C21" t="n">
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -5650,10 +5662,8 @@
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C22" t="n">
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -5668,10 +5678,8 @@
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C23" t="n">
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -5686,71 +5694,10 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C24" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pred</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>succeed</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Everygirl ?</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5798,19 +5745,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>This precisely .</t>
+          <t>Everygirl ?</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
